--- a/metadata/demographic_data_individual_sequences.xlsx
+++ b/metadata/demographic_data_individual_sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823F50CF-D33B-004F-BA81-E6CFE83AFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFBA191-9C1E-F248-8669-95CFF414ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="2180" windowWidth="18140" windowHeight="16760" xr2:uid="{5690D4A8-3140-4C40-888B-9A17FDFC47BE}"/>
+    <workbookView xWindow="7180" yWindow="2860" windowWidth="18140" windowHeight="16760" xr2:uid="{5690D4A8-3140-4C40-888B-9A17FDFC47BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1232,7 @@
         <v>97</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>110</v>
@@ -1709,7 +1709,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H30" t="s">
         <v>98</v>
